--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Comp-Cd47.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Comp-Cd47.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,16 +88,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Comp</t>
+  </si>
+  <si>
+    <t>Cd47</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Comp</t>
-  </si>
-  <si>
-    <t>Cd47</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.820229</v>
+        <v>0.417308</v>
       </c>
       <c r="H2">
-        <v>1.640458</v>
+        <v>0.834616</v>
       </c>
       <c r="I2">
-        <v>0.06307660610589233</v>
+        <v>0.0365030588402487</v>
       </c>
       <c r="J2">
-        <v>0.04362238496983823</v>
+        <v>0.02503460188982125</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>58.6738795</v>
+        <v>47.7306615</v>
       </c>
       <c r="N2">
-        <v>117.347759</v>
+        <v>95.46132299999999</v>
       </c>
       <c r="O2">
-        <v>0.153749292579248</v>
+        <v>0.1370228943284548</v>
       </c>
       <c r="P2">
-        <v>0.1115519052933064</v>
+        <v>0.09890260491781404</v>
       </c>
       <c r="Q2">
-        <v>48.1260175084055</v>
+        <v>19.918386889242</v>
       </c>
       <c r="R2">
-        <v>192.504070033622</v>
+        <v>79.673547556968</v>
       </c>
       <c r="S2">
-        <v>0.009697983567080822</v>
+        <v>0.005001754774132766</v>
       </c>
       <c r="T2">
-        <v>0.004866160156823546</v>
+        <v>0.002475987339983752</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.820229</v>
+        <v>0.417308</v>
       </c>
       <c r="H3">
-        <v>1.640458</v>
+        <v>0.834616</v>
       </c>
       <c r="I3">
-        <v>0.06307660610589233</v>
+        <v>0.0365030588402487</v>
       </c>
       <c r="J3">
-        <v>0.04362238496983823</v>
+        <v>0.02503460188982125</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>65.24464399999999</v>
+        <v>65.24464400000001</v>
       </c>
       <c r="N3">
         <v>195.733932</v>
       </c>
       <c r="O3">
-        <v>0.1709673528505112</v>
+        <v>0.1873011954864622</v>
       </c>
       <c r="P3">
-        <v>0.186066553219397</v>
+        <v>0.2027899377175642</v>
       </c>
       <c r="Q3">
-        <v>53.515549103476</v>
+        <v>27.227111898352</v>
       </c>
       <c r="R3">
-        <v>321.0932946208559</v>
+        <v>163.362671390112</v>
       </c>
       <c r="S3">
-        <v>0.01078404037271881</v>
+        <v>0.006837066559691254</v>
       </c>
       <c r="T3">
-        <v>0.008116666814547428</v>
+        <v>0.005076765358020867</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.820229</v>
+        <v>0.417308</v>
       </c>
       <c r="H4">
-        <v>1.640458</v>
+        <v>0.834616</v>
       </c>
       <c r="I4">
-        <v>0.06307660610589233</v>
+        <v>0.0365030588402487</v>
       </c>
       <c r="J4">
-        <v>0.04362238496983823</v>
+        <v>0.02503460188982125</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>75.49740366666667</v>
+        <v>78.40955366666667</v>
       </c>
       <c r="N4">
-        <v>226.492211</v>
+        <v>235.228661</v>
       </c>
       <c r="O4">
-        <v>0.1978337294932054</v>
+        <v>0.2250943868944489</v>
       </c>
       <c r="P4">
-        <v>0.2153056682671168</v>
+        <v>0.2437084108317817</v>
       </c>
       <c r="Q4">
-        <v>61.92515991210634</v>
+        <v>32.72093402152934</v>
       </c>
       <c r="R4">
-        <v>371.550959472638</v>
+        <v>196.325604129176</v>
       </c>
       <c r="S4">
-        <v>0.01247868022970257</v>
+        <v>0.008216633649417772</v>
       </c>
       <c r="T4">
-        <v>0.00939214674733645</v>
+        <v>0.006101143042374656</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.820229</v>
+        <v>0.417308</v>
       </c>
       <c r="H5">
-        <v>1.640458</v>
+        <v>0.834616</v>
       </c>
       <c r="I5">
-        <v>0.06307660610589233</v>
+        <v>0.0365030588402487</v>
       </c>
       <c r="J5">
-        <v>0.04362238496983823</v>
+        <v>0.02503460188982125</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>34.2310095</v>
+        <v>32.086324</v>
       </c>
       <c r="N5">
-        <v>68.462019</v>
+        <v>64.172648</v>
       </c>
       <c r="O5">
-        <v>0.08969908824417377</v>
+        <v>0.09211188038616569</v>
       </c>
       <c r="P5">
-        <v>0.06508065194220319</v>
+        <v>0.06648600555927713</v>
       </c>
       <c r="Q5">
-        <v>28.0772666911755</v>
+        <v>13.389879695792</v>
       </c>
       <c r="R5">
-        <v>112.309066764702</v>
+        <v>53.559518783168</v>
       </c>
       <c r="S5">
-        <v>0.005657914057235426</v>
+        <v>0.003362365389622157</v>
       </c>
       <c r="T5">
-        <v>0.002838973253110838</v>
+        <v>0.001664450680420945</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.820229</v>
+        <v>0.417308</v>
       </c>
       <c r="H6">
-        <v>1.640458</v>
+        <v>0.834616</v>
       </c>
       <c r="I6">
-        <v>0.06307660610589233</v>
+        <v>0.0365030588402487</v>
       </c>
       <c r="J6">
-        <v>0.04362238496983823</v>
+        <v>0.02503460188982125</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>45.81046933333334</v>
+        <v>67.67026033333333</v>
       </c>
       <c r="N6">
-        <v>137.431408</v>
+        <v>203.010781</v>
       </c>
       <c r="O6">
-        <v>0.1200419558540242</v>
+        <v>0.1942645385468492</v>
       </c>
       <c r="P6">
-        <v>0.1306436146730484</v>
+        <v>0.2103291095944676</v>
       </c>
       <c r="Q6">
-        <v>37.57507545081067</v>
+        <v>28.23934099918267</v>
       </c>
       <c r="R6">
-        <v>225.450452704864</v>
+        <v>169.436045995096</v>
       </c>
       <c r="S6">
-        <v>0.007571839165585201</v>
+        <v>0.007091249881149399</v>
       </c>
       <c r="T6">
-        <v>0.005698986053118925</v>
+        <v>0.00526550552453808</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.820229</v>
+        <v>0.417308</v>
       </c>
       <c r="H7">
-        <v>1.640458</v>
+        <v>0.834616</v>
       </c>
       <c r="I7">
-        <v>0.06307660610589233</v>
+        <v>0.0365030588402487</v>
       </c>
       <c r="J7">
-        <v>0.04362238496983823</v>
+        <v>0.02503460188982125</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>102.1630783333333</v>
+        <v>57.19933366666667</v>
       </c>
       <c r="N7">
-        <v>306.489235</v>
+        <v>171.598001</v>
       </c>
       <c r="O7">
-        <v>0.2677085809788375</v>
+        <v>0.1642051043576192</v>
       </c>
       <c r="P7">
-        <v>0.2913516066049282</v>
+        <v>0.1777839313790954</v>
       </c>
       <c r="Q7">
-        <v>83.79711957827166</v>
+        <v>23.86973953376933</v>
       </c>
       <c r="R7">
-        <v>502.78271746963</v>
+        <v>143.218437202616</v>
       </c>
       <c r="S7">
-        <v>0.01688614871356951</v>
+        <v>0.005993988586235352</v>
       </c>
       <c r="T7">
-        <v>0.01270945194490104</v>
+        <v>0.004450749944482952</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>31.229245</v>
       </c>
       <c r="I8">
-        <v>0.8005222874138025</v>
+        <v>0.9105688266792094</v>
       </c>
       <c r="J8">
-        <v>0.8304352490020444</v>
+        <v>0.9367322408085764</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>58.6738795</v>
+        <v>47.7306615</v>
       </c>
       <c r="N8">
-        <v>117.347759</v>
+        <v>95.46132299999999</v>
       </c>
       <c r="O8">
-        <v>0.153749292579248</v>
+        <v>0.1370228943284548</v>
       </c>
       <c r="P8">
-        <v>0.1115519052933064</v>
+        <v>0.09890260491781404</v>
       </c>
       <c r="Q8">
-        <v>610.7803193353258</v>
+        <v>496.8641739985225</v>
       </c>
       <c r="R8">
-        <v>3664.681916011955</v>
+        <v>2981.185043991135</v>
       </c>
       <c r="S8">
-        <v>0.1230797353837936</v>
+        <v>0.1247687761168504</v>
       </c>
       <c r="T8">
-        <v>0.09263663424889934</v>
+        <v>0.09264525872646927</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>31.229245</v>
       </c>
       <c r="I9">
-        <v>0.8005222874138025</v>
+        <v>0.9105688266792094</v>
       </c>
       <c r="J9">
-        <v>0.8304352490020444</v>
+        <v>0.9367322408085764</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>65.24464399999999</v>
+        <v>65.24464400000001</v>
       </c>
       <c r="N9">
         <v>195.733932</v>
       </c>
       <c r="O9">
-        <v>0.1709673528505112</v>
+        <v>0.1873011954864622</v>
       </c>
       <c r="P9">
-        <v>0.186066553219397</v>
+        <v>0.2027899377175642</v>
       </c>
       <c r="Q9">
-        <v>679.1803241379266</v>
+        <v>679.1803241379267</v>
       </c>
       <c r="R9">
         <v>6112.62291724134</v>
       </c>
       <c r="S9">
-        <v>0.1368631763769739</v>
+        <v>0.1705506298097211</v>
       </c>
       <c r="T9">
-        <v>0.1545162244537021</v>
+        <v>0.1899598727716056</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1045,10 +1045,10 @@
         <v>31.229245</v>
       </c>
       <c r="I10">
-        <v>0.8005222874138025</v>
+        <v>0.9105688266792094</v>
       </c>
       <c r="J10">
-        <v>0.8304352490020444</v>
+        <v>0.9367322408085764</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>75.49740366666667</v>
+        <v>78.40955366666667</v>
       </c>
       <c r="N10">
-        <v>226.492211</v>
+        <v>235.228661</v>
       </c>
       <c r="O10">
-        <v>0.1978337294932054</v>
+        <v>0.2250943868944489</v>
       </c>
       <c r="P10">
-        <v>0.2153056682671168</v>
+        <v>0.2437084108317817</v>
       </c>
       <c r="Q10">
-        <v>785.9089719900772</v>
+        <v>816.2237205989939</v>
       </c>
       <c r="R10">
-        <v>7073.180747910695</v>
+        <v>7346.013485390944</v>
       </c>
       <c r="S10">
-        <v>0.1583703096615042</v>
+        <v>0.2049639317665543</v>
       </c>
       <c r="T10">
-        <v>0.1787974162389546</v>
+        <v>0.228289525782352</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -1107,10 +1107,10 @@
         <v>31.229245</v>
       </c>
       <c r="I11">
-        <v>0.8005222874138025</v>
+        <v>0.9105688266792094</v>
       </c>
       <c r="J11">
-        <v>0.8304352490020444</v>
+        <v>0.9367322408085764</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>34.2310095</v>
+        <v>32.086324</v>
       </c>
       <c r="N11">
-        <v>68.462019</v>
+        <v>64.172648</v>
       </c>
       <c r="O11">
-        <v>0.08969908824417377</v>
+        <v>0.09211188038616569</v>
       </c>
       <c r="P11">
-        <v>0.06508065194220319</v>
+        <v>0.06648600555927713</v>
       </c>
       <c r="Q11">
-        <v>356.3361940909425</v>
+        <v>334.0105577817933</v>
       </c>
       <c r="R11">
-        <v>2138.017164545655</v>
+        <v>2004.06334669076</v>
       </c>
       <c r="S11">
-        <v>0.07180611930015851</v>
+        <v>0.08387420684644657</v>
       </c>
       <c r="T11">
-        <v>0.05404526740083889</v>
+        <v>0.06227958496995313</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>31.229245</v>
       </c>
       <c r="I12">
-        <v>0.8005222874138025</v>
+        <v>0.9105688266792094</v>
       </c>
       <c r="J12">
-        <v>0.8304352490020444</v>
+        <v>0.9367322408085764</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>45.81046933333334</v>
+        <v>67.67026033333333</v>
       </c>
       <c r="N12">
-        <v>137.431408</v>
+        <v>203.010781</v>
       </c>
       <c r="O12">
-        <v>0.1200419558540242</v>
+        <v>0.1942645385468492</v>
       </c>
       <c r="P12">
-        <v>0.1306436146730484</v>
+        <v>0.2103291095944676</v>
       </c>
       <c r="Q12">
-        <v>476.8754567918845</v>
+        <v>704.4303797211494</v>
       </c>
       <c r="R12">
-        <v>4291.87911112696</v>
+        <v>6339.873417490345</v>
       </c>
       <c r="S12">
-        <v>0.09609626108589017</v>
+        <v>0.1768912329299825</v>
       </c>
       <c r="T12">
-        <v>0.1084910626815401</v>
+        <v>0.1970220581376983</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>31.229245</v>
       </c>
       <c r="I13">
-        <v>0.8005222874138025</v>
+        <v>0.9105688266792094</v>
       </c>
       <c r="J13">
-        <v>0.8304352490020444</v>
+        <v>0.9367322408085764</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>102.1630783333333</v>
+        <v>57.19933366666667</v>
       </c>
       <c r="N13">
-        <v>306.489235</v>
+        <v>171.598001</v>
       </c>
       <c r="O13">
-        <v>0.2677085809788375</v>
+        <v>0.1642051043576192</v>
       </c>
       <c r="P13">
-        <v>0.2913516066049282</v>
+        <v>0.1777839313790954</v>
       </c>
       <c r="Q13">
-        <v>1063.491934408619</v>
+        <v>595.4306683043606</v>
       </c>
       <c r="R13">
-        <v>9571.427409677575</v>
+        <v>5358.876014739245</v>
       </c>
       <c r="S13">
-        <v>0.2143066856054822</v>
+        <v>0.1495200492096544</v>
       </c>
       <c r="T13">
-        <v>0.2419486439781092</v>
+        <v>0.1665359404204982</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.1017343333333333</v>
+        <v>0.03891033333333333</v>
       </c>
       <c r="H14">
-        <v>0.305203</v>
+        <v>0.116731</v>
       </c>
       <c r="I14">
-        <v>0.007823493769559743</v>
+        <v>0.003403592040316402</v>
       </c>
       <c r="J14">
-        <v>0.008115832749116123</v>
+        <v>0.003501387600046877</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>58.6738795</v>
+        <v>47.7306615</v>
       </c>
       <c r="N14">
-        <v>117.347759</v>
+        <v>95.46132299999999</v>
       </c>
       <c r="O14">
-        <v>0.153749292579248</v>
+        <v>0.1370228943284548</v>
       </c>
       <c r="P14">
-        <v>0.1115519052933064</v>
+        <v>0.09890260491781404</v>
       </c>
       <c r="Q14">
-        <v>5.969148015012833</v>
+        <v>1.8572159491855</v>
       </c>
       <c r="R14">
-        <v>35.814888090077</v>
+        <v>11.143295695113</v>
       </c>
       <c r="S14">
-        <v>0.001202856632567965</v>
+        <v>0.0004663700324774443</v>
       </c>
       <c r="T14">
-        <v>0.000905336606205716</v>
+        <v>0.0003462963544715693</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.1017343333333333</v>
+        <v>0.03891033333333333</v>
       </c>
       <c r="H15">
-        <v>0.305203</v>
+        <v>0.116731</v>
       </c>
       <c r="I15">
-        <v>0.007823493769559743</v>
+        <v>0.003403592040316402</v>
       </c>
       <c r="J15">
-        <v>0.008115832749116123</v>
+        <v>0.003501387600046877</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>65.24464399999999</v>
+        <v>65.24464400000001</v>
       </c>
       <c r="N15">
         <v>195.733932</v>
       </c>
       <c r="O15">
-        <v>0.1709673528505112</v>
+        <v>0.1873011954864622</v>
       </c>
       <c r="P15">
-        <v>0.186066553219397</v>
+        <v>0.2027899377175642</v>
       </c>
       <c r="Q15">
-        <v>6.637620360910666</v>
+        <v>2.538690846254667</v>
       </c>
       <c r="R15">
-        <v>59.73858324819599</v>
+        <v>22.848217616292</v>
       </c>
       <c r="S15">
-        <v>0.001337562019824097</v>
+        <v>0.0006374968580994691</v>
       </c>
       <c r="T15">
-        <v>0.00151008502613314</v>
+        <v>0.0007100461733385578</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,10 +1396,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1411,16 +1411,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.1017343333333333</v>
+        <v>0.03891033333333333</v>
       </c>
       <c r="H16">
-        <v>0.305203</v>
+        <v>0.116731</v>
       </c>
       <c r="I16">
-        <v>0.007823493769559743</v>
+        <v>0.003403592040316402</v>
       </c>
       <c r="J16">
-        <v>0.008115832749116123</v>
+        <v>0.003501387600046877</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>75.49740366666667</v>
+        <v>78.40955366666667</v>
       </c>
       <c r="N16">
-        <v>226.492211</v>
+        <v>235.228661</v>
       </c>
       <c r="O16">
-        <v>0.1978337294932054</v>
+        <v>0.2250943868944489</v>
       </c>
       <c r="P16">
-        <v>0.2153056682671168</v>
+        <v>0.2437084108317817</v>
       </c>
       <c r="Q16">
-        <v>7.680678030425889</v>
+        <v>3.050941869687889</v>
       </c>
       <c r="R16">
-        <v>69.126102273833</v>
+        <v>27.458476827191</v>
       </c>
       <c r="S16">
-        <v>0.00154775095009886</v>
+        <v>0.0007661294635538467</v>
       </c>
       <c r="T16">
-        <v>0.001747384793592598</v>
+        <v>0.0008533176077135305</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
@@ -1473,16 +1473,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.1017343333333333</v>
+        <v>0.03891033333333333</v>
       </c>
       <c r="H17">
-        <v>0.305203</v>
+        <v>0.116731</v>
       </c>
       <c r="I17">
-        <v>0.007823493769559743</v>
+        <v>0.003403592040316402</v>
       </c>
       <c r="J17">
-        <v>0.008115832749116123</v>
+        <v>0.003501387600046877</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>34.2310095</v>
+        <v>32.086324</v>
       </c>
       <c r="N17">
-        <v>68.462019</v>
+        <v>64.172648</v>
       </c>
       <c r="O17">
-        <v>0.08969908824417377</v>
+        <v>0.09211188038616569</v>
       </c>
       <c r="P17">
-        <v>0.06508065194220319</v>
+        <v>0.06648600555927713</v>
       </c>
       <c r="Q17">
-        <v>3.4824689308095</v>
+        <v>1.248489562281333</v>
       </c>
       <c r="R17">
-        <v>20.894813584857</v>
+        <v>7.490937373687999</v>
       </c>
       <c r="S17">
-        <v>0.0007017602580134831</v>
+        <v>0.00031351126290093</v>
       </c>
       <c r="T17">
-        <v>0.0005281836863663606</v>
+        <v>0.0002327932754419007</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>24</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1535,16 +1535,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.1017343333333333</v>
+        <v>0.03891033333333333</v>
       </c>
       <c r="H18">
-        <v>0.305203</v>
+        <v>0.116731</v>
       </c>
       <c r="I18">
-        <v>0.007823493769559743</v>
+        <v>0.003403592040316402</v>
       </c>
       <c r="J18">
-        <v>0.008115832749116123</v>
+        <v>0.003501387600046877</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>45.81046933333334</v>
+        <v>67.67026033333333</v>
       </c>
       <c r="N18">
-        <v>137.431408</v>
+        <v>203.010781</v>
       </c>
       <c r="O18">
-        <v>0.1200419558540242</v>
+        <v>0.1942645385468492</v>
       </c>
       <c r="P18">
-        <v>0.1306436146730484</v>
+        <v>0.2103291095944676</v>
       </c>
       <c r="Q18">
-        <v>4.660497557313778</v>
+        <v>2.633072386323444</v>
       </c>
       <c r="R18">
-        <v>41.944478015824</v>
+        <v>23.697651476911</v>
       </c>
       <c r="S18">
-        <v>0.0009391474937097242</v>
+        <v>0.0006611972371137948</v>
       </c>
       <c r="T18">
-        <v>0.001060281726426434</v>
+        <v>0.0007364437362629695</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1597,16 +1597,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.1017343333333333</v>
+        <v>0.03891033333333333</v>
       </c>
       <c r="H19">
-        <v>0.305203</v>
+        <v>0.116731</v>
       </c>
       <c r="I19">
-        <v>0.007823493769559743</v>
+        <v>0.003403592040316402</v>
       </c>
       <c r="J19">
-        <v>0.008115832749116123</v>
+        <v>0.003501387600046877</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>102.1630783333333</v>
+        <v>57.19933366666667</v>
       </c>
       <c r="N19">
-        <v>306.489235</v>
+        <v>171.598001</v>
       </c>
       <c r="O19">
-        <v>0.2677085809788375</v>
+        <v>0.1642051043576192</v>
       </c>
       <c r="P19">
-        <v>0.2913516066049282</v>
+        <v>0.1777839313790954</v>
       </c>
       <c r="Q19">
-        <v>10.39349266552278</v>
+        <v>2.225645139414556</v>
       </c>
       <c r="R19">
-        <v>93.541433989705</v>
+        <v>20.030806254731</v>
       </c>
       <c r="S19">
-        <v>0.002094416415345615</v>
+        <v>0.0005588871861709167</v>
       </c>
       <c r="T19">
-        <v>0.002364560910391874</v>
+        <v>0.0006224904528183494</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.5849825</v>
+        <v>0.5406085</v>
       </c>
       <c r="H20">
-        <v>1.169965</v>
+        <v>1.081217</v>
       </c>
       <c r="I20">
-        <v>0.04498586459554607</v>
+        <v>0.0472884868850791</v>
       </c>
       <c r="J20">
-        <v>0.0311112284686574</v>
+        <v>0.03243148603849778</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>58.6738795</v>
+        <v>47.7306615</v>
       </c>
       <c r="N20">
-        <v>117.347759</v>
+        <v>95.46132299999999</v>
       </c>
       <c r="O20">
-        <v>0.153749292579248</v>
+        <v>0.1370228943284548</v>
       </c>
       <c r="P20">
-        <v>0.1115519052933064</v>
+        <v>0.09890260491781404</v>
       </c>
       <c r="Q20">
-        <v>34.32319271460874</v>
+        <v>25.80360131752275</v>
       </c>
       <c r="R20">
-        <v>137.292770858435</v>
+        <v>103.214405270091</v>
       </c>
       <c r="S20">
-        <v>0.006916544857631048</v>
+        <v>0.006479605341406716</v>
       </c>
       <c r="T20">
-        <v>0.003470516811694087</v>
+        <v>0.003207558450563148</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.5849825</v>
+        <v>0.5406085</v>
       </c>
       <c r="H21">
-        <v>1.169965</v>
+        <v>1.081217</v>
       </c>
       <c r="I21">
-        <v>0.04498586459554607</v>
+        <v>0.0472884868850791</v>
       </c>
       <c r="J21">
-        <v>0.0311112284686574</v>
+        <v>0.03243148603849778</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>65.24464399999999</v>
+        <v>65.24464400000001</v>
       </c>
       <c r="N21">
         <v>195.733932</v>
       </c>
       <c r="O21">
-        <v>0.1709673528505112</v>
+        <v>0.1873011954864622</v>
       </c>
       <c r="P21">
-        <v>0.186066553219397</v>
+        <v>0.2027899377175642</v>
       </c>
       <c r="Q21">
-        <v>38.16697495872999</v>
+        <v>35.27180912587401</v>
       </c>
       <c r="R21">
-        <v>229.00184975238</v>
+        <v>211.630854755244</v>
       </c>
       <c r="S21">
-        <v>0.007691114185592046</v>
+        <v>0.008857190126321206</v>
       </c>
       <c r="T21">
-        <v>0.00578875904758426</v>
+        <v>0.006576779033835019</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,10 +1768,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.5849825</v>
+        <v>0.5406085</v>
       </c>
       <c r="H22">
-        <v>1.169965</v>
+        <v>1.081217</v>
       </c>
       <c r="I22">
-        <v>0.04498586459554607</v>
+        <v>0.0472884868850791</v>
       </c>
       <c r="J22">
-        <v>0.0311112284686574</v>
+        <v>0.03243148603849778</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>75.49740366666667</v>
+        <v>78.40955366666667</v>
       </c>
       <c r="N22">
-        <v>226.492211</v>
+        <v>235.228661</v>
       </c>
       <c r="O22">
-        <v>0.1978337294932054</v>
+        <v>0.2250943868944489</v>
       </c>
       <c r="P22">
-        <v>0.2153056682671168</v>
+        <v>0.2437084108317817</v>
       </c>
       <c r="Q22">
-        <v>44.16465994043583</v>
+        <v>42.38887119340617</v>
       </c>
       <c r="R22">
-        <v>264.987959642615</v>
+        <v>254.333227160437</v>
       </c>
       <c r="S22">
-        <v>0.008899721367413226</v>
+        <v>0.01064437296256307</v>
       </c>
       <c r="T22">
-        <v>0.006698423836055229</v>
+        <v>0.007903825923355409</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,10 +1830,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.5849825</v>
+        <v>0.5406085</v>
       </c>
       <c r="H23">
-        <v>1.169965</v>
+        <v>1.081217</v>
       </c>
       <c r="I23">
-        <v>0.04498586459554607</v>
+        <v>0.0472884868850791</v>
       </c>
       <c r="J23">
-        <v>0.0311112284686574</v>
+        <v>0.03243148603849778</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>34.2310095</v>
+        <v>32.086324</v>
       </c>
       <c r="N23">
-        <v>68.462019</v>
+        <v>64.172648</v>
       </c>
       <c r="O23">
-        <v>0.08969908824417377</v>
+        <v>0.09211188038616569</v>
       </c>
       <c r="P23">
-        <v>0.06508065194220319</v>
+        <v>0.06648600555927713</v>
       </c>
       <c r="Q23">
-        <v>20.02454151483375</v>
+        <v>17.346139488154</v>
       </c>
       <c r="R23">
-        <v>80.09816605933499</v>
+        <v>69.38455795261601</v>
       </c>
       <c r="S23">
-        <v>0.00403519103809634</v>
+        <v>0.004355831447601172</v>
       </c>
       <c r="T23">
-        <v>0.002024739031463055</v>
+        <v>0.002156239961051182</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,13 +1892,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>24</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.5849825</v>
+        <v>0.5406085</v>
       </c>
       <c r="H24">
-        <v>1.169965</v>
+        <v>1.081217</v>
       </c>
       <c r="I24">
-        <v>0.04498586459554607</v>
+        <v>0.0472884868850791</v>
       </c>
       <c r="J24">
-        <v>0.0311112284686574</v>
+        <v>0.03243148603849778</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>45.81046933333334</v>
+        <v>67.67026033333333</v>
       </c>
       <c r="N24">
-        <v>137.431408</v>
+        <v>203.010781</v>
       </c>
       <c r="O24">
-        <v>0.1200419558540242</v>
+        <v>0.1942645385468492</v>
       </c>
       <c r="P24">
-        <v>0.1306436146730484</v>
+        <v>0.2103291095944676</v>
       </c>
       <c r="Q24">
-        <v>26.79832287678667</v>
+        <v>36.58311793341284</v>
       </c>
       <c r="R24">
-        <v>160.78993726072</v>
+        <v>219.498707600477</v>
       </c>
       <c r="S24">
-        <v>0.005400191171833653</v>
+        <v>0.009186476083308623</v>
       </c>
       <c r="T24">
-        <v>0.004064483344064451</v>
+        <v>0.006821285581302646</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,13 +1954,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.5849825</v>
+        <v>0.5406085</v>
       </c>
       <c r="H25">
-        <v>1.169965</v>
+        <v>1.081217</v>
       </c>
       <c r="I25">
-        <v>0.04498586459554607</v>
+        <v>0.0472884868850791</v>
       </c>
       <c r="J25">
-        <v>0.0311112284686574</v>
+        <v>0.03243148603849778</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>102.1630783333333</v>
+        <v>57.19933366666667</v>
       </c>
       <c r="N25">
-        <v>306.489235</v>
+        <v>171.598001</v>
       </c>
       <c r="O25">
-        <v>0.2677085809788375</v>
+        <v>0.1642051043576192</v>
       </c>
       <c r="P25">
-        <v>0.2913516066049282</v>
+        <v>0.1777839313790954</v>
       </c>
       <c r="Q25">
-        <v>59.76361297112916</v>
+        <v>30.92244597453617</v>
       </c>
       <c r="R25">
-        <v>358.581677826775</v>
+        <v>185.534675847217</v>
       </c>
       <c r="S25">
-        <v>0.01204310197497976</v>
+        <v>0.00776501092387832</v>
       </c>
       <c r="T25">
-        <v>0.009064306397796313</v>
+        <v>0.00576579708839038</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,31 +2016,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.798925</v>
+        <v>0.02556266666666667</v>
       </c>
       <c r="H26">
-        <v>2.396775</v>
+        <v>0.07668800000000001</v>
       </c>
       <c r="I26">
-        <v>0.06143830263639792</v>
+        <v>0.002236035555146313</v>
       </c>
       <c r="J26">
-        <v>0.06373405581617086</v>
+        <v>0.002300283663057756</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>58.6738795</v>
+        <v>47.7306615</v>
       </c>
       <c r="N26">
-        <v>117.347759</v>
+        <v>95.46132299999999</v>
       </c>
       <c r="O26">
-        <v>0.153749292579248</v>
+        <v>0.1370228943284548</v>
       </c>
       <c r="P26">
-        <v>0.1115519052933064</v>
+        <v>0.09890260491781404</v>
       </c>
       <c r="Q26">
-        <v>46.8760291795375</v>
+        <v>1.220122989704</v>
       </c>
       <c r="R26">
-        <v>281.256175077225</v>
+        <v>7.320737938224</v>
       </c>
       <c r="S26">
-        <v>0.009446095567615928</v>
+        <v>0.0003063880635874811</v>
       </c>
       <c r="T26">
-        <v>0.007109655358363795</v>
+        <v>0.0002275040463263033</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,31 +2078,31 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>0.798925</v>
+        <v>0.02556266666666667</v>
       </c>
       <c r="H27">
-        <v>2.396775</v>
+        <v>0.07668800000000001</v>
       </c>
       <c r="I27">
-        <v>0.06143830263639792</v>
+        <v>0.002236035555146313</v>
       </c>
       <c r="J27">
-        <v>0.06373405581617086</v>
+        <v>0.002300283663057756</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>65.24464399999999</v>
+        <v>65.24464400000001</v>
       </c>
       <c r="N27">
         <v>195.733932</v>
       </c>
       <c r="O27">
-        <v>0.1709673528505112</v>
+        <v>0.1873011954864622</v>
       </c>
       <c r="P27">
-        <v>0.186066553219397</v>
+        <v>0.2027899377175642</v>
       </c>
       <c r="Q27">
-        <v>52.1255772077</v>
+        <v>1.667827086357334</v>
       </c>
       <c r="R27">
-        <v>469.1301948692999</v>
+        <v>15.010443777216</v>
       </c>
       <c r="S27">
-        <v>0.01050394396537354</v>
+        <v>0.0004188121326291396</v>
       </c>
       <c r="T27">
-        <v>0.01185877608840757</v>
+        <v>0.0004664743807642128</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,31 +2140,31 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>0.798925</v>
+        <v>0.02556266666666667</v>
       </c>
       <c r="H28">
-        <v>2.396775</v>
+        <v>0.07668800000000001</v>
       </c>
       <c r="I28">
-        <v>0.06143830263639792</v>
+        <v>0.002236035555146313</v>
       </c>
       <c r="J28">
-        <v>0.06373405581617086</v>
+        <v>0.002300283663057756</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>75.49740366666667</v>
+        <v>78.40955366666667</v>
       </c>
       <c r="N28">
-        <v>226.492211</v>
+        <v>235.228661</v>
       </c>
       <c r="O28">
-        <v>0.1978337294932054</v>
+        <v>0.2250943868944489</v>
       </c>
       <c r="P28">
-        <v>0.2153056682671168</v>
+        <v>0.2437084108317817</v>
       </c>
       <c r="Q28">
-        <v>60.31676322439167</v>
+        <v>2.004357283863111</v>
       </c>
       <c r="R28">
-        <v>542.850869019525</v>
+        <v>18.039215554768</v>
       </c>
       <c r="S28">
-        <v>0.01215456854429083</v>
+        <v>0.0005033190523598479</v>
       </c>
       <c r="T28">
-        <v>0.01372230347887439</v>
+        <v>0.0005605984759861153</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,31 +2202,31 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>0.798925</v>
+        <v>0.02556266666666667</v>
       </c>
       <c r="H29">
-        <v>2.396775</v>
+        <v>0.07668800000000001</v>
       </c>
       <c r="I29">
-        <v>0.06143830263639792</v>
+        <v>0.002236035555146313</v>
       </c>
       <c r="J29">
-        <v>0.06373405581617086</v>
+        <v>0.002300283663057756</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>34.2310095</v>
+        <v>32.086324</v>
       </c>
       <c r="N29">
-        <v>68.462019</v>
+        <v>64.172648</v>
       </c>
       <c r="O29">
-        <v>0.08969908824417377</v>
+        <v>0.09211188038616569</v>
       </c>
       <c r="P29">
-        <v>0.06508065194220319</v>
+        <v>0.06648600555927713</v>
       </c>
       <c r="Q29">
-        <v>27.3480092647875</v>
+        <v>0.8202120049706666</v>
       </c>
       <c r="R29">
-        <v>164.088055588725</v>
+        <v>4.921272029824</v>
       </c>
       <c r="S29">
-        <v>0.005510959729754511</v>
+        <v>0.0002059654395948508</v>
       </c>
       <c r="T29">
-        <v>0.004147853903437167</v>
+        <v>0.0001529366724099723</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,31 +2264,31 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>27</v>
       </c>
-      <c r="D30" t="s">
-        <v>24</v>
-      </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>0.798925</v>
+        <v>0.02556266666666667</v>
       </c>
       <c r="H30">
-        <v>2.396775</v>
+        <v>0.07668800000000001</v>
       </c>
       <c r="I30">
-        <v>0.06143830263639792</v>
+        <v>0.002236035555146313</v>
       </c>
       <c r="J30">
-        <v>0.06373405581617086</v>
+        <v>0.002300283663057756</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>45.81046933333334</v>
+        <v>67.67026033333333</v>
       </c>
       <c r="N30">
-        <v>137.431408</v>
+        <v>203.010781</v>
       </c>
       <c r="O30">
-        <v>0.1200419558540242</v>
+        <v>0.1942645385468492</v>
       </c>
       <c r="P30">
-        <v>0.1306436146730484</v>
+        <v>0.2103291095944676</v>
       </c>
       <c r="Q30">
-        <v>36.59912921213333</v>
+        <v>1.729832308147556</v>
       </c>
       <c r="R30">
-        <v>329.3921629092</v>
+        <v>15.568490773328</v>
       </c>
       <c r="S30">
-        <v>0.007375174012824659</v>
+        <v>0.0004343824152948463</v>
       </c>
       <c r="T30">
-        <v>0.008326447429598387</v>
+        <v>0.0004838166146656381</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,31 +2326,31 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>0.798925</v>
+        <v>0.02556266666666667</v>
       </c>
       <c r="H31">
-        <v>2.396775</v>
+        <v>0.07668800000000001</v>
       </c>
       <c r="I31">
-        <v>0.06143830263639792</v>
+        <v>0.002236035555146313</v>
       </c>
       <c r="J31">
-        <v>0.06373405581617086</v>
+        <v>0.002300283663057756</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,400 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>102.1630783333333</v>
+        <v>57.19933366666667</v>
       </c>
       <c r="N31">
-        <v>306.489235</v>
+        <v>171.598001</v>
       </c>
       <c r="O31">
-        <v>0.2677085809788375</v>
+        <v>0.1642051043576192</v>
       </c>
       <c r="P31">
-        <v>0.2913516066049282</v>
+        <v>0.1777839313790954</v>
       </c>
       <c r="Q31">
-        <v>81.62063735745834</v>
+        <v>1.462167500076444</v>
       </c>
       <c r="R31">
-        <v>734.585736217125</v>
+        <v>13.159507500688</v>
       </c>
       <c r="S31">
-        <v>0.01644756081653846</v>
+        <v>0.0003671684516801472</v>
       </c>
       <c r="T31">
-        <v>0.01856901955748955</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
-      <c r="F32">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G32">
-        <v>0.2880766666666667</v>
-      </c>
-      <c r="H32">
-        <v>0.8642300000000001</v>
-      </c>
-      <c r="I32">
-        <v>0.02215344547880138</v>
-      </c>
-      <c r="J32">
-        <v>0.02298124899417315</v>
-      </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>58.6738795</v>
-      </c>
-      <c r="N32">
-        <v>117.347759</v>
-      </c>
-      <c r="O32">
-        <v>0.153749292579248</v>
-      </c>
-      <c r="P32">
-        <v>0.1115519052933064</v>
-      </c>
-      <c r="Q32">
-        <v>16.90257562676167</v>
-      </c>
-      <c r="R32">
-        <v>101.41545376057</v>
-      </c>
-      <c r="S32">
-        <v>0.003406076570558653</v>
-      </c>
-      <c r="T32">
-        <v>0.002563602111319895</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-      <c r="F33">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G33">
-        <v>0.2880766666666667</v>
-      </c>
-      <c r="H33">
-        <v>0.8642300000000001</v>
-      </c>
-      <c r="I33">
-        <v>0.02215344547880138</v>
-      </c>
-      <c r="J33">
-        <v>0.02298124899417315</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>65.24464399999999</v>
-      </c>
-      <c r="N33">
-        <v>195.733932</v>
-      </c>
-      <c r="O33">
-        <v>0.1709673528505112</v>
-      </c>
-      <c r="P33">
-        <v>0.186066553219397</v>
-      </c>
-      <c r="Q33">
-        <v>18.79545956137333</v>
-      </c>
-      <c r="R33">
-        <v>169.15913605236</v>
-      </c>
-      <c r="S33">
-        <v>0.003787515930028799</v>
-      </c>
-      <c r="T33">
-        <v>0.004276041789022532</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-      <c r="F34">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G34">
-        <v>0.2880766666666667</v>
-      </c>
-      <c r="H34">
-        <v>0.8642300000000001</v>
-      </c>
-      <c r="I34">
-        <v>0.02215344547880138</v>
-      </c>
-      <c r="J34">
-        <v>0.02298124899417315</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>75.49740366666667</v>
-      </c>
-      <c r="N34">
-        <v>226.492211</v>
-      </c>
-      <c r="O34">
-        <v>0.1978337294932054</v>
-      </c>
-      <c r="P34">
-        <v>0.2153056682671168</v>
-      </c>
-      <c r="Q34">
-        <v>21.74904039028112</v>
-      </c>
-      <c r="R34">
-        <v>195.74136351253</v>
-      </c>
-      <c r="S34">
-        <v>0.004382698740195665</v>
-      </c>
-      <c r="T34">
-        <v>0.004947993172303455</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-      <c r="F35">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G35">
-        <v>0.2880766666666667</v>
-      </c>
-      <c r="H35">
-        <v>0.8642300000000001</v>
-      </c>
-      <c r="I35">
-        <v>0.02215344547880138</v>
-      </c>
-      <c r="J35">
-        <v>0.02298124899417315</v>
-      </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>34.2310095</v>
-      </c>
-      <c r="N35">
-        <v>68.462019</v>
-      </c>
-      <c r="O35">
-        <v>0.08969908824417377</v>
-      </c>
-      <c r="P35">
-        <v>0.06508065194220319</v>
-      </c>
-      <c r="Q35">
-        <v>9.861155113395</v>
-      </c>
-      <c r="R35">
-        <v>59.16693068037</v>
-      </c>
-      <c r="S35">
-        <v>0.001987143860915498</v>
-      </c>
-      <c r="T35">
-        <v>0.00149563466698689</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-      <c r="F36">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G36">
-        <v>0.2880766666666667</v>
-      </c>
-      <c r="H36">
-        <v>0.8642300000000001</v>
-      </c>
-      <c r="I36">
-        <v>0.02215344547880138</v>
-      </c>
-      <c r="J36">
-        <v>0.02298124899417315</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>45.81046933333334</v>
-      </c>
-      <c r="N36">
-        <v>137.431408</v>
-      </c>
-      <c r="O36">
-        <v>0.1200419558540242</v>
-      </c>
-      <c r="P36">
-        <v>0.1306436146730484</v>
-      </c>
-      <c r="Q36">
-        <v>13.19692730398222</v>
-      </c>
-      <c r="R36">
-        <v>118.77234573584</v>
-      </c>
-      <c r="S36">
-        <v>0.002659342924180808</v>
-      </c>
-      <c r="T36">
-        <v>0.003002353438300139</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-      <c r="F37">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G37">
-        <v>0.2880766666666667</v>
-      </c>
-      <c r="H37">
-        <v>0.8642300000000001</v>
-      </c>
-      <c r="I37">
-        <v>0.02215344547880138</v>
-      </c>
-      <c r="J37">
-        <v>0.02298124899417315</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>102.1630783333333</v>
-      </c>
-      <c r="N37">
-        <v>306.489235</v>
-      </c>
-      <c r="O37">
-        <v>0.2677085809788375</v>
-      </c>
-      <c r="P37">
-        <v>0.2913516066049282</v>
-      </c>
-      <c r="Q37">
-        <v>29.43079906267223</v>
-      </c>
-      <c r="R37">
-        <v>264.87719156405</v>
-      </c>
-      <c r="S37">
-        <v>0.005930667452921961</v>
-      </c>
-      <c r="T37">
-        <v>0.006695623816240237</v>
+        <v>0.0004089534729055142</v>
       </c>
     </row>
   </sheetData>
